--- a/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/42/stop-words-masking-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="161">
   <si>
     <t>anchor score</t>
   </si>
@@ -49,12 +49,12 @@
     <t>useless</t>
   </si>
   <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -64,15 +64,18 @@
     <t>however</t>
   </si>
   <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
     <t>broke</t>
   </si>
   <si>
     <t>waste</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
     <t>smaller</t>
   </si>
   <si>
@@ -82,24 +85,24 @@
     <t>negative</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
     <t>beautifully</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>loves</t>
-  </si>
-  <si>
-    <t>excellent</t>
+    <t>love</t>
   </si>
   <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>awesome</t>
   </si>
   <si>
@@ -109,220 +112,250 @@
     <t>favorite</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>loved</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>son</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>beautiful</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>pleased</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>wedding</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
   <si>
     <t>family</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>perfectly</t>
   </si>
   <si>
     <t>apples</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
     <t>glad</t>
   </si>
   <si>
+    <t>cooke</t>
+  </si>
+  <si>
     <t>potatoes</t>
   </si>
   <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>everyday</t>
+  </si>
+  <si>
+    <t>mas</t>
+  </si>
+  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>cake</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>fresh</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
-    <t>perfectly</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>fresh</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>decor</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>handy</t>
   </si>
   <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>mas</t>
-  </si>
-  <si>
-    <t>cooks</t>
+    <t>fun</t>
   </si>
   <si>
     <t>ze</t>
   </si>
   <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>comfortable</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>dough</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>baking</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>gift</t>
-  </si>
-  <si>
-    <t>cream</t>
-  </si>
-  <si>
-    <t>dough</t>
-  </si>
-  <si>
-    <t>friend</t>
+    <t>powerful</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>home</t>
   </si>
   <si>
     <t>nicely</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>baking</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>years</t>
+    <t>tea</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>tea</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>super</t>
+    <t>day</t>
+  </si>
+  <si>
+    <t>pop</t>
+  </si>
+  <si>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>fan</t>
   </si>
   <si>
     <t>highly</t>
   </si>
   <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>fan</t>
+    <t>exactly</t>
+  </si>
+  <si>
+    <t>durable</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>book</t>
+  </si>
+  <si>
+    <t>gr</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>making</t>
+  </si>
+  <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>w</t>
   </si>
   <si>
     <t>simple</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>exactly</t>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>maker</t>
+  </si>
+  <si>
+    <t>every</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>amazon</t>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>dish</t>
   </si>
   <si>
     <t>recommend</t>
@@ -331,157 +364,136 @@
     <t>many</t>
   </si>
   <si>
-    <t>making</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>peel</t>
-  </si>
-  <si>
-    <t>dish</t>
+    <t>anyone</t>
+  </si>
+  <si>
+    <t>makes</t>
+  </si>
+  <si>
+    <t>far</t>
   </si>
   <si>
     <t>wish</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>maker</t>
+    <t>bowl</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>quality</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>anyone</t>
-  </si>
-  <si>
     <t>brand</t>
   </si>
   <si>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>fast</t>
   </si>
   <si>
     <t>make</t>
   </si>
   <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>fast</t>
-  </si>
-  <si>
-    <t>ox</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>lot</t>
+  </si>
+  <si>
+    <t>pot</t>
+  </si>
+  <si>
+    <t>purchased</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>easily</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>like</t>
   </si>
   <si>
     <t>job</t>
   </si>
   <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>lot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
-    <t>pot</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>purchased</t>
+    <t>got</t>
   </si>
   <si>
     <t>purchase</t>
   </si>
   <si>
-    <t>easily</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>really</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>first</t>
+    <t>buy</t>
   </si>
   <si>
     <t>time</t>
   </si>
   <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>handle</t>
+  </si>
+  <si>
+    <t>use</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>handle</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
     <t>work</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>product</t>
+  </si>
+  <si>
+    <t>would</t>
   </si>
   <si>
     <t>positive</t>
@@ -842,7 +854,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q136"/>
+  <dimension ref="A1:Q139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,10 +862,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -911,13 +923,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.896551724137931</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -929,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.946236559139785</v>
       </c>
       <c r="L3">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="M3">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -953,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -961,13 +973,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7407407407407407</v>
+        <v>0.7037037037037037</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -979,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9310344827586207</v>
       </c>
       <c r="L4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -1003,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1011,13 +1023,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.525</v>
+        <v>0.575</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1029,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.967741935483871</v>
+        <v>0.9140625</v>
       </c>
       <c r="L5">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="M5">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1053,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1061,13 +1073,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.4716981132075472</v>
+        <v>0.3953488372093023</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1079,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.90625</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1103,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1111,13 +1123,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.4108527131782946</v>
+        <v>0.3584905660377358</v>
       </c>
       <c r="C7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1129,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8695652173913043</v>
+        <v>0.8622291021671826</v>
       </c>
       <c r="L7">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="M7">
-        <v>60</v>
+        <v>557</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1153,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1161,13 +1173,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.3939393939393939</v>
+        <v>0.3535353535353535</v>
       </c>
       <c r="C8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D8">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1179,19 +1191,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8653250773993808</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L8">
-        <v>559</v>
+        <v>59</v>
       </c>
       <c r="M8">
-        <v>559</v>
+        <v>59</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1203,7 +1215,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>87</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1211,13 +1223,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3</v>
+        <v>0.32</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1229,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9">
         <v>0.8478260869565217</v>
@@ -1282,7 +1294,7 @@
         <v>58</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K10">
         <v>0.8461538461538461</v>
@@ -1311,13 +1323,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.172972972972973</v>
+        <v>0.2205882352941176</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1329,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K11">
         <v>0.8</v>
@@ -1361,13 +1373,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.1694915254237288</v>
+        <v>0.2111111111111111</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1379,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7445887445887446</v>
+        <v>0.7727272727272727</v>
       </c>
       <c r="L12">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>172</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1403,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1411,13 +1423,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1666666666666667</v>
+        <v>0.172972972972973</v>
       </c>
       <c r="C13">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1429,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>75</v>
+        <v>153</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7333333333333333</v>
+        <v>0.7662337662337663</v>
       </c>
       <c r="L13">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="M13">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1453,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1461,13 +1473,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.1650485436893204</v>
+        <v>0.1694915254237288</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1479,19 +1491,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>0.7272727272727273</v>
       </c>
       <c r="L14">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="M14">
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1503,7 +1515,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1511,37 +1523,37 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.07731958762886598</v>
+        <v>0.145631067961165</v>
       </c>
       <c r="C15">
         <v>15</v>
       </c>
       <c r="D15">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>179</v>
+        <v>88</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K15">
-        <v>0.7152542372881356</v>
+        <v>0.726027397260274</v>
       </c>
       <c r="L15">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="M15">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1553,21 +1565,45 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.1025641025641026</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>175</v>
+      </c>
       <c r="J16" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K16">
-        <v>0.6901408450704225</v>
+        <v>0.7016949152542373</v>
       </c>
       <c r="L16">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="M16">
-        <v>49</v>
+        <v>207</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1579,21 +1615,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>22</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.6883116883116883</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="L17">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="M17">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1605,21 +1641,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.6875</v>
+        <v>0.671875</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1631,21 +1667,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.676923076923077</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1657,21 +1693,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.6575342465753424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="M20">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1683,21 +1719,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6573033707865169</v>
+        <v>0.64446227929374</v>
       </c>
       <c r="L21">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="M21">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1709,21 +1745,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>427</v>
+        <v>443</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6538461538461539</v>
+        <v>0.6410256410256411</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1735,21 +1771,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6410256410256411</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1761,21 +1797,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6171428571428571</v>
+        <v>0.6057692307692307</v>
       </c>
       <c r="L24">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="M24">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1787,21 +1823,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>67</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.6041666666666666</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L25">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="M25">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1813,21 +1849,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.6031746031746031</v>
+        <v>0.6</v>
       </c>
       <c r="L26">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="M26">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1839,21 +1875,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5964912280701754</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="L27">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1865,21 +1901,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5925925925925926</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1891,21 +1927,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5897435897435898</v>
+        <v>0.5789473684210527</v>
       </c>
       <c r="L29">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M29">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1917,21 +1953,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.5882352941176471</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L30">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1943,21 +1979,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.5769230769230769</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L31">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="M31">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1969,21 +2005,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>44</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K32">
         <v>0.5714285714285714</v>
       </c>
       <c r="L32">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M32">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1995,21 +2031,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.5714285714285714</v>
+        <v>0.562874251497006</v>
       </c>
       <c r="L33">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="M33">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2021,21 +2057,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.5686274509803921</v>
+        <v>0.5625</v>
       </c>
       <c r="L34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M34">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2047,12 +2083,12 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="K35">
         <v>0.5555555555555556</v>
@@ -2078,16 +2114,16 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.5538461538461539</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M36">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2099,21 +2135,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.5526315789473685</v>
+        <v>0.5542168674698795</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M37">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2125,21 +2161,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.5449101796407185</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L38">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2151,21 +2187,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>76</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.5428571428571428</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2177,21 +2213,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.5416666666666666</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L40">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2203,21 +2239,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K41">
         <v>0.5384615384615384</v>
       </c>
       <c r="L41">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="M41">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2229,21 +2265,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.525</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L42">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="M42">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2255,21 +2291,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>19</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.5172413793103449</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="L43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2281,21 +2317,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.5151515151515151</v>
+        <v>0.5102040816326531</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2307,21 +2343,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.5102040816326531</v>
+        <v>0.51</v>
       </c>
       <c r="L45">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M45">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2333,21 +2369,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>24</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.5061728395061729</v>
+        <v>0.4897959183673469</v>
       </c>
       <c r="L46">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="M46">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2359,21 +2395,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.5060240963855421</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L47">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2385,21 +2421,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.5</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L48">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2411,21 +2447,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>50</v>
+        <v>32</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.4918032786885246</v>
+        <v>0.475</v>
       </c>
       <c r="L49">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="M49">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2437,21 +2473,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K50">
-        <v>0.4736842105263158</v>
+        <v>0.4722222222222222</v>
       </c>
       <c r="L50">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M50">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2463,21 +2499,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>70</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K51">
-        <v>0.4473684210526316</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L51">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M51">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2489,21 +2525,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K52">
-        <v>0.4337349397590362</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="L52">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M52">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2515,21 +2551,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K53">
-        <v>0.4264705882352941</v>
+        <v>0.4156626506024096</v>
       </c>
       <c r="L53">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2541,21 +2577,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>39</v>
+        <v>97</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K54">
-        <v>0.425531914893617</v>
+        <v>0.4146341463414634</v>
       </c>
       <c r="L54">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2567,21 +2603,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K55">
-        <v>0.4146341463414634</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L55">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M55">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2593,21 +2629,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K56">
-        <v>0.4107142857142857</v>
+        <v>0.4042553191489361</v>
       </c>
       <c r="L56">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="M56">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2619,12 +2655,12 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K57">
         <v>0.4032258064516129</v>
@@ -2650,16 +2686,16 @@
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K58">
-        <v>0.3833333333333334</v>
+        <v>0.4007782101167315</v>
       </c>
       <c r="L58">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="M58">
-        <v>23</v>
+        <v>103</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2671,21 +2707,21 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>37</v>
+        <v>154</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K59">
-        <v>0.3823529411764706</v>
+        <v>0.4</v>
       </c>
       <c r="L59">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="M59">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2697,21 +2733,21 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>252</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K60">
-        <v>0.3821917808219178</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L60">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="M60">
-        <v>279</v>
+        <v>30</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2723,21 +2759,21 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>451</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K61">
-        <v>0.3696498054474708</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="L61">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="M61">
-        <v>95</v>
+        <v>15</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2749,21 +2785,21 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>162</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K62">
-        <v>0.3423423423423423</v>
+        <v>0.3774509803921569</v>
       </c>
       <c r="L62">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="M62">
-        <v>38</v>
+        <v>154</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2775,21 +2811,21 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>73</v>
+        <v>254</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K63">
-        <v>0.3381294964028777</v>
+        <v>0.3657534246575342</v>
       </c>
       <c r="L63">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="M63">
-        <v>47</v>
+        <v>267</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2801,21 +2837,21 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>92</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K64">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L64">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="M64">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2827,21 +2863,21 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>72</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K65">
-        <v>0.3272727272727273</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L65">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="M65">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2853,21 +2889,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K66">
-        <v>0.3260869565217391</v>
+        <v>0.3525179856115108</v>
       </c>
       <c r="L66">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="M66">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2879,21 +2915,21 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>31</v>
+        <v>90</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="K67">
-        <v>0.3153153153153153</v>
+        <v>0.3425925925925926</v>
       </c>
       <c r="L67">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M67">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2905,21 +2941,21 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="K68">
-        <v>0.3069306930693069</v>
+        <v>0.3423423423423423</v>
       </c>
       <c r="L68">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M68">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2931,21 +2967,21 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K69">
-        <v>0.3055555555555556</v>
+        <v>0.3366336633663367</v>
       </c>
       <c r="L69">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="M69">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2957,21 +2993,21 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>50</v>
+        <v>67</v>
       </c>
     </row>
     <row r="70" spans="10:17">
       <c r="J70" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K70">
-        <v>0.3055555555555556</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2983,21 +3019,21 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="71" spans="10:17">
       <c r="J71" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K71">
-        <v>0.3015873015873016</v>
+        <v>0.3253588516746411</v>
       </c>
       <c r="L71">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="M71">
-        <v>19</v>
+        <v>68</v>
       </c>
       <c r="N71">
         <v>1</v>
@@ -3009,12 +3045,12 @@
         <v>0</v>
       </c>
       <c r="Q71">
-        <v>44</v>
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="10:17">
       <c r="J72" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K72">
         <v>0.2976190476190476</v>
@@ -3040,16 +3076,16 @@
     </row>
     <row r="73" spans="10:17">
       <c r="J73" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K73">
-        <v>0.2932330827067669</v>
+        <v>0.2847682119205298</v>
       </c>
       <c r="L73">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="M73">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -3061,21 +3097,21 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="74" spans="10:17">
       <c r="J74" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K74">
-        <v>0.2913907284768212</v>
+        <v>0.2781954887218045</v>
       </c>
       <c r="L74">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M74">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -3087,21 +3123,21 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>107</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="10:17">
       <c r="J75" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K75">
-        <v>0.271259418729817</v>
+        <v>0.2777777777777778</v>
       </c>
       <c r="L75">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="M75">
-        <v>252</v>
+        <v>20</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -3113,21 +3149,21 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>677</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="10:17">
       <c r="J76" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K76">
-        <v>0.2684563758389262</v>
+        <v>0.2702702702702703</v>
       </c>
       <c r="L76">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M76">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -3139,73 +3175,73 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>109</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="10:17">
       <c r="J77" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K77">
-        <v>0.2631578947368421</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="L77">
-        <v>55</v>
+        <v>30</v>
       </c>
       <c r="M77">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="N77">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q77">
-        <v>154</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="10:17">
       <c r="J78" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K78">
-        <v>0.25</v>
+        <v>0.265625</v>
       </c>
       <c r="L78">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="M78">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N78">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O78">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q78">
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="10:17">
       <c r="J79" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K79">
-        <v>0.2397350993377483</v>
+        <v>0.263724434876211</v>
       </c>
       <c r="L79">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="M79">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -3217,21 +3253,21 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>574</v>
+        <v>684</v>
       </c>
     </row>
     <row r="80" spans="10:17">
       <c r="J80" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K80">
-        <v>0.2352941176470588</v>
+        <v>0.2615384615384616</v>
       </c>
       <c r="L80">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M80">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3243,21 +3279,21 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="10:17">
       <c r="J81" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K81">
-        <v>0.234375</v>
+        <v>0.2571428571428571</v>
       </c>
       <c r="L81">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="M81">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3269,47 +3305,47 @@
         <v>0</v>
       </c>
       <c r="Q81">
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="82" spans="10:17">
       <c r="J82" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K82">
-        <v>0.2125480153649168</v>
+        <v>0.2550335570469799</v>
       </c>
       <c r="L82">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="M82">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="N82">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O82">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>615</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83" spans="10:17">
       <c r="J83" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K83">
-        <v>0.2077922077922078</v>
+        <v>0.25</v>
       </c>
       <c r="L83">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="M83">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3321,21 +3357,21 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="10:17">
       <c r="J84" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K84">
-        <v>0.2075471698113208</v>
+        <v>0.25</v>
       </c>
       <c r="L84">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="M84">
-        <v>77</v>
+        <v>23</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3347,21 +3383,21 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>294</v>
+        <v>69</v>
       </c>
     </row>
     <row r="85" spans="10:17">
       <c r="J85" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="K85">
-        <v>0.2051282051282051</v>
+        <v>0.2470588235294118</v>
       </c>
       <c r="L85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="M85">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3373,21 +3409,21 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>93</v>
+        <v>64</v>
       </c>
     </row>
     <row r="86" spans="10:17">
       <c r="J86" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K86">
-        <v>0.2</v>
+        <v>0.2361111111111111</v>
       </c>
       <c r="L86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N86">
         <v>1</v>
@@ -3399,21 +3435,21 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>80</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="10:17">
       <c r="J87" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K87">
-        <v>0.2</v>
+        <v>0.2351097178683386</v>
       </c>
       <c r="L87">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M87">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3425,21 +3461,21 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>84</v>
+        <v>244</v>
       </c>
     </row>
     <row r="88" spans="10:17">
       <c r="J88" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="K88">
-        <v>0.1974921630094044</v>
+        <v>0.2301790281329923</v>
       </c>
       <c r="L88">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="M88">
-        <v>63</v>
+        <v>180</v>
       </c>
       <c r="N88">
         <v>1</v>
@@ -3451,21 +3487,21 @@
         <v>0</v>
       </c>
       <c r="Q88">
-        <v>256</v>
+        <v>602</v>
       </c>
     </row>
     <row r="89" spans="10:17">
       <c r="J89" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K89">
-        <v>0.1956521739130435</v>
+        <v>0.2235294117647059</v>
       </c>
       <c r="L89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3477,21 +3513,21 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="90" spans="10:17">
       <c r="J90" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K90">
-        <v>0.1927710843373494</v>
+        <v>0.2195121951219512</v>
       </c>
       <c r="L90">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M90">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3503,21 +3539,21 @@
         <v>0</v>
       </c>
       <c r="Q90">
-        <v>67</v>
+        <v>128</v>
       </c>
     </row>
     <row r="91" spans="10:17">
       <c r="J91" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K91">
-        <v>0.1926605504587156</v>
+        <v>0.2119205298013245</v>
       </c>
       <c r="L91">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="M91">
-        <v>21</v>
+        <v>160</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3529,21 +3565,21 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>88</v>
+        <v>595</v>
       </c>
     </row>
     <row r="92" spans="10:17">
       <c r="J92" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K92">
-        <v>0.1923076923076923</v>
+        <v>0.2048192771084337</v>
       </c>
       <c r="L92">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M92">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3555,73 +3591,73 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>105</v>
+        <v>66</v>
       </c>
     </row>
     <row r="93" spans="10:17">
       <c r="J93" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K93">
-        <v>0.1890243902439024</v>
+        <v>0.2037037037037037</v>
       </c>
       <c r="L93">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="M93">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N93">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q93">
-        <v>133</v>
+        <v>86</v>
       </c>
     </row>
     <row r="94" spans="10:17">
       <c r="J94" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="K94">
-        <v>0.1882352941176471</v>
+        <v>0.2032520325203252</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q94">
-        <v>69</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="10:17">
       <c r="J95" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="K95">
-        <v>0.1718377088305489</v>
+        <v>0.1965811965811966</v>
       </c>
       <c r="L95">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="M95">
-        <v>72</v>
+        <v>23</v>
       </c>
       <c r="N95">
         <v>1</v>
@@ -3633,21 +3669,21 @@
         <v>0</v>
       </c>
       <c r="Q95">
-        <v>347</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96" spans="10:17">
       <c r="J96" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K96">
-        <v>0.1697416974169742</v>
+        <v>0.1935483870967742</v>
       </c>
       <c r="L96">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="M96">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="N96">
         <v>1</v>
@@ -3659,47 +3695,47 @@
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>225</v>
+        <v>75</v>
       </c>
     </row>
     <row r="97" spans="10:17">
       <c r="J97" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K97">
-        <v>0.1644736842105263</v>
+        <v>0.1814814814814815</v>
       </c>
       <c r="L97">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="M97">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q97">
-        <v>381</v>
+        <v>221</v>
       </c>
     </row>
     <row r="98" spans="10:17">
       <c r="J98" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K98">
-        <v>0.1639344262295082</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3711,47 +3747,47 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="10:17">
       <c r="J99" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K99">
-        <v>0.1630434782608696</v>
+        <v>0.1769230769230769</v>
       </c>
       <c r="L99">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="M99">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N99">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O99">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q99">
-        <v>77</v>
+        <v>107</v>
       </c>
     </row>
     <row r="100" spans="10:17">
       <c r="J100" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K100">
-        <v>0.1616161616161616</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="L100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M100">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3763,82 +3799,82 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="10:17">
       <c r="J101" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K101">
-        <v>0.1571753986332574</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="L101">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="M101">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N101">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O101">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q101">
-        <v>370</v>
+        <v>380</v>
       </c>
     </row>
     <row r="102" spans="10:17">
       <c r="J102" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K102">
-        <v>0.155</v>
+        <v>0.1638418079096045</v>
       </c>
       <c r="L102">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M102">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="N102">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O102">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P102" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q102">
-        <v>169</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="10:17">
       <c r="J103" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K103">
-        <v>0.1484184914841849</v>
+        <v>0.1626794258373206</v>
       </c>
       <c r="L103">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="M103">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O103">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q103">
         <v>350</v>
@@ -3846,16 +3882,16 @@
     </row>
     <row r="104" spans="10:17">
       <c r="J104" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K104">
-        <v>0.1468926553672316</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="L104">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="M104">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3867,21 +3903,21 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>151</v>
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="10:17">
       <c r="J105" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K105">
-        <v>0.1444444444444444</v>
+        <v>0.1474358974358974</v>
       </c>
       <c r="L105">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="M105">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3893,21 +3929,21 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>231</v>
+        <v>133</v>
       </c>
     </row>
     <row r="106" spans="10:17">
       <c r="J106" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K106">
-        <v>0.1443298969072165</v>
+        <v>0.145985401459854</v>
       </c>
       <c r="L106">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="M106">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3919,47 +3955,47 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>249</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" spans="10:17">
       <c r="J107" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K107">
-        <v>0.1428571428571428</v>
+        <v>0.1435643564356436</v>
       </c>
       <c r="L107">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M107">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="N107">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O107">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P107" t="b">
         <v>1</v>
       </c>
       <c r="Q107">
-        <v>96</v>
+        <v>173</v>
       </c>
     </row>
     <row r="108" spans="10:17">
       <c r="J108" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K108">
-        <v>0.1395348837209302</v>
+        <v>0.1409090909090909</v>
       </c>
       <c r="L108">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="M108">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="N108">
         <v>1</v>
@@ -3971,15 +4007,15 @@
         <v>0</v>
       </c>
       <c r="Q108">
-        <v>111</v>
+        <v>378</v>
       </c>
     </row>
     <row r="109" spans="10:17">
       <c r="J109" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K109">
-        <v>0.1374045801526718</v>
+        <v>0.1395348837209302</v>
       </c>
       <c r="L109">
         <v>18</v>
@@ -3997,21 +4033,21 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="110" spans="10:17">
       <c r="J110" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K110">
-        <v>0.1370967741935484</v>
+        <v>0.137037037037037</v>
       </c>
       <c r="L110">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M110">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -4023,47 +4059,47 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>214</v>
+        <v>233</v>
       </c>
     </row>
     <row r="111" spans="10:17">
       <c r="J111" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K111">
-        <v>0.136</v>
+        <v>0.1349693251533742</v>
       </c>
       <c r="L111">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="M111">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N111">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O111">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P111" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q111">
-        <v>108</v>
+        <v>141</v>
       </c>
     </row>
     <row r="112" spans="10:17">
       <c r="J112" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K112">
-        <v>0.1272727272727273</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="L112">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="M112">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="N112">
         <v>1</v>
@@ -4075,21 +4111,21 @@
         <v>0</v>
       </c>
       <c r="Q112">
-        <v>144</v>
+        <v>109</v>
       </c>
     </row>
     <row r="113" spans="10:17">
       <c r="J113" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K113">
-        <v>0.1260504201680672</v>
+        <v>0.134020618556701</v>
       </c>
       <c r="L113">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="M113">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -4101,21 +4137,21 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>208</v>
+        <v>252</v>
       </c>
     </row>
     <row r="114" spans="10:17">
       <c r="J114" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K114">
-        <v>0.1241830065359477</v>
+        <v>0.1212121212121212</v>
       </c>
       <c r="L114">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M114">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -4127,21 +4163,21 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>134</v>
+        <v>145</v>
       </c>
     </row>
     <row r="115" spans="10:17">
       <c r="J115" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K115">
-        <v>0.1217948717948718</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L115">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M115">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N115">
         <v>1</v>
@@ -4153,12 +4189,12 @@
         <v>0</v>
       </c>
       <c r="Q115">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="10:17">
       <c r="J116" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K116">
         <v>0.1176470588235294</v>
@@ -4184,68 +4220,68 @@
     </row>
     <row r="117" spans="10:17">
       <c r="J117" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K117">
-        <v>0.1172839506172839</v>
+        <v>0.1118881118881119</v>
       </c>
       <c r="L117">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="M117">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N117">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O117">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P117" t="b">
         <v>1</v>
       </c>
       <c r="Q117">
-        <v>143</v>
+        <v>127</v>
       </c>
     </row>
     <row r="118" spans="10:17">
       <c r="J118" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K118">
-        <v>0.1111111111111111</v>
+        <v>0.1105769230769231</v>
       </c>
       <c r="L118">
         <v>23</v>
       </c>
       <c r="M118">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="N118">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O118">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q118">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="119" spans="10:17">
       <c r="J119" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K119">
-        <v>0.1041666666666667</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="L119">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M119">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N119">
         <v>1</v>
@@ -4257,73 +4293,73 @@
         <v>0</v>
       </c>
       <c r="Q119">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="10:17">
       <c r="J120" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K120">
-        <v>0.1006289308176101</v>
+        <v>0.109704641350211</v>
       </c>
       <c r="L120">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="M120">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N120">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O120">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P120" t="b">
         <v>1</v>
       </c>
       <c r="Q120">
-        <v>143</v>
+        <v>211</v>
       </c>
     </row>
     <row r="121" spans="10:17">
       <c r="J121" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K121">
-        <v>0.09740259740259741</v>
+        <v>0.1063218390804598</v>
       </c>
       <c r="L121">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="M121">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O121">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q121">
-        <v>139</v>
+        <v>622</v>
       </c>
     </row>
     <row r="122" spans="10:17">
       <c r="J122" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K122">
-        <v>0.0918918918918919</v>
+        <v>0.1048387096774194</v>
       </c>
       <c r="L122">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="M122">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="N122">
         <v>1</v>
@@ -4335,47 +4371,47 @@
         <v>0</v>
       </c>
       <c r="Q122">
-        <v>168</v>
+        <v>222</v>
       </c>
     </row>
     <row r="123" spans="10:17">
       <c r="J123" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="K123">
-        <v>0.09176029962546817</v>
+        <v>0.1027027027027027</v>
       </c>
       <c r="L123">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="M123">
-        <v>102</v>
+        <v>19</v>
       </c>
       <c r="N123">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O123">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P123" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q123">
-        <v>970</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="10:17">
       <c r="J124" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K124">
-        <v>0.09016393442622951</v>
+        <v>0.09375</v>
       </c>
       <c r="L124">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M124">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N124">
         <v>1</v>
@@ -4387,47 +4423,47 @@
         <v>0</v>
       </c>
       <c r="Q124">
-        <v>333</v>
+        <v>145</v>
       </c>
     </row>
     <row r="125" spans="10:17">
       <c r="J125" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K125">
-        <v>0.08751793400286945</v>
+        <v>0.0896358543417367</v>
       </c>
       <c r="L125">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="M125">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="N125">
-        <v>0.98</v>
+        <v>0.99</v>
       </c>
       <c r="O125">
-        <v>0.02000000000000002</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P125" t="b">
         <v>1</v>
       </c>
       <c r="Q125">
-        <v>636</v>
+        <v>975</v>
       </c>
     </row>
     <row r="126" spans="10:17">
       <c r="J126" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K126">
-        <v>0.08088235294117647</v>
+        <v>0.08196721311475409</v>
       </c>
       <c r="L126">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="M126">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="N126">
         <v>1</v>
@@ -4439,73 +4475,73 @@
         <v>0</v>
       </c>
       <c r="Q126">
-        <v>250</v>
+        <v>336</v>
       </c>
     </row>
     <row r="127" spans="10:17">
       <c r="J127" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K127">
-        <v>0.07614213197969544</v>
+        <v>0.07720588235294118</v>
       </c>
       <c r="L127">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="M127">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N127">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O127">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q127">
-        <v>182</v>
+        <v>251</v>
       </c>
     </row>
     <row r="128" spans="10:17">
       <c r="J128" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K128">
-        <v>0.07393715341959335</v>
+        <v>0.07614213197969544</v>
       </c>
       <c r="L128">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M128">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N128">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O128">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q128">
-        <v>501</v>
+        <v>364</v>
       </c>
     </row>
     <row r="129" spans="10:17">
       <c r="J129" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K129">
-        <v>0.0673076923076923</v>
+        <v>0.07592592592592592</v>
       </c>
       <c r="L129">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M129">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="N129">
         <v>0.95</v>
@@ -4517,189 +4553,267 @@
         <v>1</v>
       </c>
       <c r="Q129">
-        <v>485</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130" spans="10:17">
       <c r="J130" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K130">
-        <v>0.06694560669456066</v>
+        <v>0.07094594594594594</v>
       </c>
       <c r="L130">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M130">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="N130">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O130">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q130">
-        <v>223</v>
+        <v>275</v>
       </c>
     </row>
     <row r="131" spans="10:17">
       <c r="J131" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K131">
-        <v>0.06537530266343826</v>
+        <v>0.06276150627615062</v>
       </c>
       <c r="L131">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="M131">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N131">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O131">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q131">
-        <v>386</v>
+        <v>224</v>
       </c>
     </row>
     <row r="132" spans="10:17">
       <c r="J132" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K132">
-        <v>0.06345177664974619</v>
+        <v>0.06147186147186147</v>
       </c>
       <c r="L132">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="M132">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="N132">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O132">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q132">
-        <v>369</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="133" spans="10:17">
       <c r="J133" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K133">
-        <v>0.05714285714285714</v>
+        <v>0.0558252427184466</v>
       </c>
       <c r="L133">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="M133">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="N133">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="O133">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P133" t="b">
         <v>1</v>
       </c>
       <c r="Q133">
-        <v>1089</v>
+        <v>389</v>
       </c>
     </row>
     <row r="134" spans="10:17">
       <c r="J134" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="K134">
-        <v>0.0505050505050505</v>
+        <v>0.05248618784530387</v>
       </c>
       <c r="L134">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M134">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="N134">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="O134">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="P134" t="b">
         <v>1</v>
       </c>
       <c r="Q134">
-        <v>282</v>
+        <v>343</v>
       </c>
     </row>
     <row r="135" spans="10:17">
       <c r="J135" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K135">
-        <v>0.0440771349862259</v>
+        <v>0.05172413793103448</v>
       </c>
       <c r="L135">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="M135">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N135">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="O135">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="P135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q135">
-        <v>347</v>
+        <v>495</v>
       </c>
     </row>
     <row r="136" spans="10:17">
       <c r="J136" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K136">
-        <v>0.03407601572739188</v>
+        <v>0.04657534246575343</v>
       </c>
       <c r="L136">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="M136">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N136">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="O136">
-        <v>0.13</v>
+        <v>0.26</v>
       </c>
       <c r="P136" t="b">
         <v>1</v>
       </c>
       <c r="Q136">
-        <v>737</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="137" spans="10:17">
+      <c r="J137" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="K137">
+        <v>0.04297994269340974</v>
+      </c>
+      <c r="L137">
+        <v>15</v>
+      </c>
+      <c r="M137">
+        <v>24</v>
+      </c>
+      <c r="N137">
+        <v>0.62</v>
+      </c>
+      <c r="O137">
+        <v>0.38</v>
+      </c>
+      <c r="P137" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q137">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="138" spans="10:17">
+      <c r="J138" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="K138">
+        <v>0.03034300791556728</v>
+      </c>
+      <c r="L138">
+        <v>23</v>
+      </c>
+      <c r="M138">
+        <v>32</v>
+      </c>
+      <c r="N138">
+        <v>0.72</v>
+      </c>
+      <c r="O138">
+        <v>0.28</v>
+      </c>
+      <c r="P138" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q138">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="139" spans="10:17">
+      <c r="J139" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="K139">
+        <v>0.02049180327868852</v>
+      </c>
+      <c r="L139">
+        <v>15</v>
+      </c>
+      <c r="M139">
+        <v>18</v>
+      </c>
+      <c r="N139">
+        <v>0.83</v>
+      </c>
+      <c r="O139">
+        <v>0.17</v>
+      </c>
+      <c r="P139" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q139">
+        <v>717</v>
       </c>
     </row>
   </sheetData>
